--- a/Data_clean/MCAS/Estados_US/Edos_USA_2017/NEW_JERSEY_2017.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2017/NEW_JERSEY_2017.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1322"/>
+  <dimension ref="A1:D1316"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C22">
@@ -693,7 +693,7 @@
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C24">
@@ -771,7 +771,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C30">
@@ -810,7 +810,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C33">
@@ -1018,7 +1018,7 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C49">
@@ -1057,7 +1057,7 @@
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>Montecristo de Guerrero</t>
+          <t>Montecristo De Guerrero</t>
         </is>
       </c>
       <c r="C52">
@@ -1096,7 +1096,7 @@
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C55">
@@ -1174,7 +1174,7 @@
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C61">
@@ -1187,7 +1187,7 @@
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C62">
@@ -1600,7 +1600,7 @@
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C93">
@@ -1722,7 +1722,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1779,7 +1779,7 @@
     <row r="106">
       <c r="B106" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C106">
@@ -2064,18 +2064,18 @@
         <v>14</v>
       </c>
       <c r="D127">
-        <v>0.0009348290598290599</v>
+        <v>0.00093482905982906</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C128">
@@ -2114,7 +2114,7 @@
     <row r="131">
       <c r="B131" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C131">
@@ -2127,7 +2127,7 @@
     <row r="132">
       <c r="B132" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C132">
@@ -2192,7 +2192,7 @@
     <row r="137">
       <c r="B137" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C137">
@@ -2257,7 +2257,7 @@
     <row r="142">
       <c r="B142" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C142">
@@ -2296,7 +2296,7 @@
     <row r="145">
       <c r="B145" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C145">
@@ -2361,7 +2361,7 @@
     <row r="150">
       <c r="B150" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C150">
@@ -2413,7 +2413,7 @@
     <row r="154">
       <c r="B154" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C154">
@@ -2426,7 +2426,7 @@
     <row r="155">
       <c r="B155" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C155">
@@ -2569,7 +2569,7 @@
     <row r="166">
       <c r="B166" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C166">
@@ -2647,7 +2647,7 @@
     <row r="172">
       <c r="B172" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C172">
@@ -2673,7 +2673,7 @@
     <row r="174">
       <c r="B174" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C174">
@@ -2777,7 +2777,7 @@
     <row r="182">
       <c r="B182" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C182">
@@ -2881,7 +2881,7 @@
     <row r="190">
       <c r="B190" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C190">
@@ -2933,7 +2933,7 @@
     <row r="194">
       <c r="B194" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C194">
@@ -2946,7 +2946,7 @@
     <row r="195">
       <c r="B195" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C195">
@@ -2959,7 +2959,7 @@
     <row r="196">
       <c r="B196" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C196">
@@ -3120,7 +3120,7 @@
     <row r="208">
       <c r="B208" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C208">
@@ -3133,7 +3133,7 @@
     <row r="209">
       <c r="B209" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C209">
@@ -3198,7 +3198,7 @@
     <row r="214">
       <c r="B214" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C214">
@@ -3341,7 +3341,7 @@
     <row r="225">
       <c r="B225" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C225">
@@ -3367,7 +3367,7 @@
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C227">
@@ -3380,7 +3380,7 @@
     <row r="228">
       <c r="B228" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C228">
@@ -3393,7 +3393,7 @@
     <row r="229">
       <c r="B229" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C229">
@@ -3419,7 +3419,7 @@
     <row r="231">
       <c r="B231" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C231">
@@ -3471,7 +3471,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C235">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C240">
@@ -3567,7 +3567,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C242">
@@ -3580,7 +3580,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C243">
@@ -3632,7 +3632,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C247">
@@ -3645,7 +3645,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C248">
@@ -3671,7 +3671,7 @@
     <row r="250">
       <c r="B250" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C250">
@@ -3684,7 +3684,7 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C251">
@@ -3710,7 +3710,7 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C253">
@@ -3723,7 +3723,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C254">
@@ -3736,7 +3736,7 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C255">
@@ -3749,7 +3749,7 @@
     <row r="256">
       <c r="B256" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C256">
@@ -3814,7 +3814,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C261">
@@ -3827,7 +3827,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C262">
@@ -3879,7 +3879,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C266">
@@ -3892,7 +3892,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C267">
@@ -3970,7 +3970,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C273">
@@ -3983,7 +3983,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C274">
@@ -4009,7 +4009,7 @@
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C276">
@@ -4022,7 +4022,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C277">
@@ -4048,7 +4048,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C279">
@@ -4087,7 +4087,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C282">
@@ -4256,7 +4256,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C295">
@@ -4282,7 +4282,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C297">
@@ -4308,7 +4308,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C299">
@@ -4334,7 +4334,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C301">
@@ -4386,7 +4386,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C305">
@@ -4399,7 +4399,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C306">
@@ -4547,7 +4547,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C317">
@@ -4599,7 +4599,7 @@
     <row r="321">
       <c r="B321" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C321">
@@ -4612,7 +4612,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C322">
@@ -4677,7 +4677,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C327">
@@ -4716,7 +4716,7 @@
     <row r="330">
       <c r="B330" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C330">
@@ -4768,7 +4768,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C334">
@@ -4807,7 +4807,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C337">
@@ -4885,7 +4885,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C343">
@@ -4898,7 +4898,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C344">
@@ -4911,7 +4911,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C345">
@@ -4924,7 +4924,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C346">
@@ -4937,7 +4937,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C347">
@@ -4976,7 +4976,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C350">
@@ -5015,7 +5015,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C353">
@@ -5028,7 +5028,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C354">
@@ -5080,7 +5080,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C358">
@@ -5093,7 +5093,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C359">
@@ -5132,7 +5132,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C362">
@@ -5197,7 +5197,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C367">
@@ -5210,7 +5210,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C368">
@@ -5249,7 +5249,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C371">
@@ -5384,7 +5384,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C381">
@@ -5436,7 +5436,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C385">
@@ -5501,7 +5501,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C390">
@@ -5527,7 +5527,7 @@
     <row r="392">
       <c r="B392" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C392">
@@ -5553,7 +5553,7 @@
     <row r="394">
       <c r="B394" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C394">
@@ -5605,7 +5605,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C398">
@@ -5657,7 +5657,7 @@
     <row r="402">
       <c r="B402" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C402">
@@ -5670,7 +5670,7 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C403">
@@ -5709,7 +5709,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C406">
@@ -5909,7 +5909,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C421">
@@ -6163,7 +6163,7 @@
         <v>14</v>
       </c>
       <c r="D440">
-        <v>0.0009348290598290599</v>
+        <v>0.00093482905982906</v>
       </c>
     </row>
     <row r="441">
@@ -6455,7 +6455,7 @@
     <row r="463">
       <c r="B463" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C463">
@@ -6694,7 +6694,7 @@
     <row r="481">
       <c r="B481" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C481">
@@ -6785,7 +6785,7 @@
     <row r="488">
       <c r="B488" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C488">
@@ -6824,7 +6824,7 @@
     <row r="491">
       <c r="B491" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C491">
@@ -6889,7 +6889,7 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C496">
@@ -6915,7 +6915,7 @@
     <row r="498">
       <c r="B498" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C498">
@@ -7019,7 +7019,7 @@
     <row r="506">
       <c r="B506" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C506">
@@ -7229,7 +7229,7 @@
     <row r="521">
       <c r="B521" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C521">
@@ -7320,7 +7320,7 @@
     <row r="528">
       <c r="B528" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C528">
@@ -7359,7 +7359,7 @@
     <row r="531">
       <c r="B531" t="inlineStr">
         <is>
-          <t>Capulálpam de Méndez</t>
+          <t>Capulálpam De Méndez</t>
         </is>
       </c>
       <c r="C531">
@@ -7385,7 +7385,7 @@
     <row r="533">
       <c r="B533" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C533">
@@ -7398,7 +7398,7 @@
     <row r="534">
       <c r="B534" t="inlineStr">
         <is>
-          <t>Ciénega de Zimatlán</t>
+          <t>Ciénega De Zimatlán</t>
         </is>
       </c>
       <c r="C534">
@@ -7424,7 +7424,7 @@
     <row r="536">
       <c r="B536" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C536">
@@ -7463,14 +7463,14 @@
     <row r="539">
       <c r="B539" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C539">
         <v>14</v>
       </c>
       <c r="D539">
-        <v>0.0009348290598290599</v>
+        <v>0.00093482905982906</v>
       </c>
     </row>
     <row r="540">
@@ -7502,7 +7502,7 @@
     <row r="542">
       <c r="B542" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C542">
@@ -7528,7 +7528,7 @@
     <row r="544">
       <c r="B544" t="inlineStr">
         <is>
-          <t>Eloxochitlán de Flores Magón</t>
+          <t>Eloxochitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C544">
@@ -7541,7 +7541,7 @@
     <row r="545">
       <c r="B545" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C545">
@@ -7554,7 +7554,7 @@
     <row r="546">
       <c r="B546" t="inlineStr">
         <is>
-          <t>Guadalupe de Ramírez</t>
+          <t>Guadalupe De Ramírez</t>
         </is>
       </c>
       <c r="C546">
@@ -7580,7 +7580,7 @@
     <row r="548">
       <c r="B548" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C548">
@@ -7593,7 +7593,7 @@
     <row r="549">
       <c r="B549" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C549">
@@ -7606,7 +7606,7 @@
     <row r="550">
       <c r="B550" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C550">
@@ -7619,7 +7619,7 @@
     <row r="551">
       <c r="B551" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C551">
@@ -7645,7 +7645,7 @@
     <row r="553">
       <c r="B553" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C553">
@@ -7658,7 +7658,7 @@
     <row r="554">
       <c r="B554" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C554">
@@ -7775,7 +7775,7 @@
     <row r="563">
       <c r="B563" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C563">
@@ -7788,7 +7788,7 @@
     <row r="564">
       <c r="B564" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C564">
@@ -7827,7 +7827,7 @@
     <row r="567">
       <c r="B567" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C567">
@@ -7840,7 +7840,7 @@
     <row r="568">
       <c r="B568" t="inlineStr">
         <is>
-          <t>Mixistlán de la Reforma</t>
+          <t>Mixistlán De La Reforma</t>
         </is>
       </c>
       <c r="C568">
@@ -7892,7 +7892,7 @@
     <row r="572">
       <c r="B572" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C572">
@@ -7918,7 +7918,7 @@
     <row r="574">
       <c r="B574" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C574">
@@ -7931,7 +7931,7 @@
     <row r="575">
       <c r="B575" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C575">
@@ -7944,7 +7944,7 @@
     <row r="576">
       <c r="B576" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C576">
@@ -7970,7 +7970,7 @@
     <row r="578">
       <c r="B578" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C578">
@@ -7983,7 +7983,7 @@
     <row r="579">
       <c r="B579" t="inlineStr">
         <is>
-          <t>Reforma de Pineda</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C579">
@@ -8048,7 +8048,7 @@
     <row r="584">
       <c r="B584" t="inlineStr">
         <is>
-          <t>San Agustín de las Juntas</t>
+          <t>San Agustín De Las Juntas</t>
         </is>
       </c>
       <c r="C584">
@@ -8178,7 +8178,7 @@
     <row r="594">
       <c r="B594" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C594">
@@ -8256,7 +8256,7 @@
     <row r="600">
       <c r="B600" t="inlineStr">
         <is>
-          <t>San Baltazar Yatzachi el Bajo</t>
+          <t>San Baltazar Yatzachi El Bajo</t>
         </is>
       </c>
       <c r="C600">
@@ -8321,7 +8321,7 @@
     <row r="605">
       <c r="B605" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C605">
@@ -8555,7 +8555,7 @@
     <row r="623">
       <c r="B623" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C623">
@@ -8646,7 +8646,7 @@
     <row r="630">
       <c r="B630" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C630">
@@ -8750,7 +8750,7 @@
     <row r="638">
       <c r="B638" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C638">
@@ -8763,7 +8763,7 @@
     <row r="639">
       <c r="B639" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C639">
@@ -8900,7 +8900,7 @@
         <v>14</v>
       </c>
       <c r="D649">
-        <v>0.0009348290598290599</v>
+        <v>0.00093482905982906</v>
       </c>
     </row>
     <row r="650">
@@ -9205,7 +9205,7 @@
     <row r="673">
       <c r="B673" t="inlineStr">
         <is>
-          <t>San Mateo del Mar</t>
+          <t>San Mateo Del Mar</t>
         </is>
       </c>
       <c r="C673">
@@ -9316,7 +9316,7 @@
         <v>14</v>
       </c>
       <c r="D681">
-        <v>0.0009348290598290599</v>
+        <v>0.00093482905982906</v>
       </c>
     </row>
     <row r="682">
@@ -9335,7 +9335,7 @@
     <row r="683">
       <c r="B683" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C683">
@@ -9348,7 +9348,7 @@
     <row r="684">
       <c r="B684" t="inlineStr">
         <is>
-          <t>San Miguel del Río</t>
+          <t>San Miguel Del Río</t>
         </is>
       </c>
       <c r="C684">
@@ -9374,7 +9374,7 @@
     <row r="686">
       <c r="B686" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C686">
@@ -9517,7 +9517,7 @@
     <row r="697">
       <c r="B697" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C697">
@@ -9569,7 +9569,7 @@
     <row r="701">
       <c r="B701" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C701">
@@ -9959,7 +9959,7 @@
     <row r="731">
       <c r="B731" t="inlineStr">
         <is>
-          <t>Santa Ana del Valle</t>
+          <t>Santa Ana Del Valle</t>
         </is>
       </c>
       <c r="C731">
@@ -10154,7 +10154,7 @@
     <row r="746">
       <c r="B746" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C746">
@@ -10414,7 +10414,7 @@
     <row r="766">
       <c r="B766" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C766">
@@ -10713,7 +10713,7 @@
     <row r="789">
       <c r="B789" t="inlineStr">
         <is>
-          <t>Santiago del Río</t>
+          <t>Santiago Del Río</t>
         </is>
       </c>
       <c r="C789">
@@ -11090,7 +11090,7 @@
     <row r="818">
       <c r="B818" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C818">
@@ -11240,7 +11240,7 @@
         <v>14</v>
       </c>
       <c r="D829">
-        <v>0.0009348290598290599</v>
+        <v>0.00093482905982906</v>
       </c>
     </row>
     <row r="830">
@@ -11363,7 +11363,7 @@
     <row r="839">
       <c r="B839" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C839">
@@ -11376,7 +11376,7 @@
     <row r="840">
       <c r="B840" t="inlineStr">
         <is>
-          <t>Tanetze de Zaragoza</t>
+          <t>Tanetze De Zaragoza</t>
         </is>
       </c>
       <c r="C840">
@@ -11389,7 +11389,7 @@
     <row r="841">
       <c r="B841" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C841">
@@ -11402,7 +11402,7 @@
     <row r="842">
       <c r="B842" t="inlineStr">
         <is>
-          <t>Teococuilco de Marcos Pérez</t>
+          <t>Teococuilco De Marcos Pérez</t>
         </is>
       </c>
       <c r="C842">
@@ -11415,7 +11415,7 @@
     <row r="843">
       <c r="B843" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C843">
@@ -11428,7 +11428,7 @@
     <row r="844">
       <c r="B844" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C844">
@@ -11441,7 +11441,7 @@
     <row r="845">
       <c r="B845" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C845">
@@ -11454,7 +11454,7 @@
     <row r="846">
       <c r="B846" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C846">
@@ -11467,7 +11467,7 @@
     <row r="847">
       <c r="B847" t="inlineStr">
         <is>
-          <t>Tlalixtac de Cabrera</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C847">
@@ -11480,7 +11480,7 @@
     <row r="848">
       <c r="B848" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C848">
@@ -11519,7 +11519,7 @@
     <row r="851">
       <c r="B851" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C851">
@@ -11532,7 +11532,7 @@
     <row r="852">
       <c r="B852" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C852">
@@ -11545,7 +11545,7 @@
     <row r="853">
       <c r="B853" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C853">
@@ -11558,7 +11558,7 @@
     <row r="854">
       <c r="B854" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C854">
@@ -11597,7 +11597,7 @@
     <row r="857">
       <c r="B857" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C857">
@@ -11610,7 +11610,7 @@
     <row r="858">
       <c r="B858" t="inlineStr">
         <is>
-          <t>Villa Talea de Castro</t>
+          <t>Villa Talea De Castro</t>
         </is>
       </c>
       <c r="C858">
@@ -11623,7 +11623,7 @@
     <row r="859">
       <c r="B859" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C859">
@@ -11649,14 +11649,14 @@
     <row r="861">
       <c r="B861" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C861">
         <v>14</v>
       </c>
       <c r="D861">
-        <v>0.0009348290598290599</v>
+        <v>0.00093482905982906</v>
       </c>
     </row>
     <row r="862">
@@ -11979,7 +11979,7 @@
     <row r="886">
       <c r="B886" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C886">
@@ -12135,7 +12135,7 @@
     <row r="898">
       <c r="B898" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C898">
@@ -12278,7 +12278,7 @@
     <row r="909">
       <c r="B909" t="inlineStr">
         <is>
-          <t>Cuapiaxtla de Madero</t>
+          <t>Cuapiaxtla De Madero</t>
         </is>
       </c>
       <c r="C909">
@@ -12317,7 +12317,7 @@
     <row r="912">
       <c r="B912" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C912">
@@ -12330,7 +12330,7 @@
     <row r="913">
       <c r="B913" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C913">
@@ -12525,7 +12525,7 @@
     <row r="928">
       <c r="B928" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C928">
@@ -12538,7 +12538,7 @@
     <row r="929">
       <c r="B929" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C929">
@@ -12590,7 +12590,7 @@
     <row r="933">
       <c r="B933" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C933">
@@ -12616,7 +12616,7 @@
     <row r="935">
       <c r="B935" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C935">
@@ -12649,13 +12649,13 @@
         <v>14</v>
       </c>
       <c r="D937">
-        <v>0.0009348290598290599</v>
+        <v>0.00093482905982906</v>
       </c>
     </row>
     <row r="938">
       <c r="B938" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C938">
@@ -12798,7 +12798,7 @@
     <row r="949">
       <c r="B949" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C949">
@@ -12811,7 +12811,7 @@
     <row r="950">
       <c r="B950" t="inlineStr">
         <is>
-          <t>Mazapiltepec de Juárez</t>
+          <t>Mazapiltepec De Juárez</t>
         </is>
       </c>
       <c r="C950">
@@ -12967,7 +12967,7 @@
     <row r="962">
       <c r="B962" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C962">
@@ -13097,7 +13097,7 @@
     <row r="972">
       <c r="B972" t="inlineStr">
         <is>
-          <t>San Diego la Mesa Tochimiltzingo</t>
+          <t>San Diego La Mesa Tochimiltzingo</t>
         </is>
       </c>
       <c r="C972">
@@ -13240,7 +13240,7 @@
     <row r="983">
       <c r="B983" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C983">
@@ -13292,7 +13292,7 @@
     <row r="987">
       <c r="B987" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C987">
@@ -13305,7 +13305,7 @@
     <row r="988">
       <c r="B988" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C988">
@@ -13383,7 +13383,7 @@
     <row r="994">
       <c r="B994" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C994">
@@ -13487,7 +13487,7 @@
     <row r="1002">
       <c r="B1002" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C1002">
@@ -13500,7 +13500,7 @@
     <row r="1003">
       <c r="B1003" t="inlineStr">
         <is>
-          <t>Tepango de Rodríguez</t>
+          <t>Tepango De Rodríguez</t>
         </is>
       </c>
       <c r="C1003">
@@ -13513,7 +13513,7 @@
     <row r="1004">
       <c r="B1004" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C1004">
@@ -13591,7 +13591,7 @@
     <row r="1010">
       <c r="B1010" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C1010">
@@ -13617,7 +13617,7 @@
     <row r="1012">
       <c r="B1012" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C1012">
@@ -13630,7 +13630,7 @@
     <row r="1013">
       <c r="B1013" t="inlineStr">
         <is>
-          <t>Teteles de Avila Castillo</t>
+          <t>Teteles De Avila Castillo</t>
         </is>
       </c>
       <c r="C1013">
@@ -13695,7 +13695,7 @@
     <row r="1018">
       <c r="B1018" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1018">
@@ -13838,7 +13838,7 @@
     <row r="1029">
       <c r="B1029" t="inlineStr">
         <is>
-          <t>Totoltepec de Guerrero</t>
+          <t>Totoltepec De Guerrero</t>
         </is>
       </c>
       <c r="C1029">
@@ -13864,7 +13864,7 @@
     <row r="1031">
       <c r="B1031" t="inlineStr">
         <is>
-          <t>Tuzamapan de Galeana</t>
+          <t>Tuzamapan De Galeana</t>
         </is>
       </c>
       <c r="C1031">
@@ -13916,7 +13916,7 @@
     <row r="1035">
       <c r="B1035" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C1035">
@@ -13949,7 +13949,7 @@
         <v>14</v>
       </c>
       <c r="D1037">
-        <v>0.0009348290598290599</v>
+        <v>0.00093482905982906</v>
       </c>
     </row>
     <row r="1038">
@@ -13962,7 +13962,7 @@
         <v>14</v>
       </c>
       <c r="D1038">
-        <v>0.0009348290598290599</v>
+        <v>0.00093482905982906</v>
       </c>
     </row>
     <row r="1039">
@@ -13994,7 +13994,7 @@
     <row r="1041">
       <c r="B1041" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C1041">
@@ -14181,7 +14181,7 @@
       </c>
       <c r="B1055" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1055">
@@ -14207,7 +14207,7 @@
     <row r="1057">
       <c r="B1057" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1057">
@@ -14220,7 +14220,7 @@
     <row r="1058">
       <c r="B1058" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1058">
@@ -14233,7 +14233,7 @@
     <row r="1059">
       <c r="B1059" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1059">
@@ -14246,7 +14246,7 @@
     <row r="1060">
       <c r="B1060" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1060">
@@ -14272,7 +14272,7 @@
     <row r="1062">
       <c r="B1062" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1062">
@@ -14386,7 +14386,7 @@
     <row r="1070">
       <c r="B1070" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C1070">
@@ -14477,7 +14477,7 @@
     <row r="1077">
       <c r="B1077" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1077">
@@ -14594,7 +14594,7 @@
     <row r="1086">
       <c r="B1086" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C1086">
@@ -14607,7 +14607,7 @@
     <row r="1087">
       <c r="B1087" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1087">
@@ -14921,7 +14921,7 @@
     <row r="1110">
       <c r="B1110" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1110">
@@ -15165,7 +15165,7 @@
       </c>
       <c r="B1128" t="inlineStr">
         <is>
-          <t>Acuamanala de Miguel Hidalgo</t>
+          <t>Acuamanala De Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C1128">
@@ -15198,7 +15198,7 @@
         <v>14</v>
       </c>
       <c r="D1130">
-        <v>0.0009348290598290599</v>
+        <v>0.00093482905982906</v>
       </c>
     </row>
     <row r="1131">
@@ -15243,7 +15243,7 @@
     <row r="1134">
       <c r="B1134" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1134">
@@ -15347,7 +15347,7 @@
     <row r="1142">
       <c r="B1142" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1142">
@@ -15386,7 +15386,7 @@
     <row r="1145">
       <c r="B1145" t="inlineStr">
         <is>
-          <t>Mazatecochco de José María Morelos</t>
+          <t>Mazatecochco De José María Morelos</t>
         </is>
       </c>
       <c r="C1145">
@@ -15425,7 +15425,7 @@
     <row r="1148">
       <c r="B1148" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1148">
@@ -15477,7 +15477,7 @@
     <row r="1152">
       <c r="B1152" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1152">
@@ -15542,7 +15542,7 @@
     <row r="1157">
       <c r="B1157" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1157">
@@ -15581,7 +15581,7 @@
     <row r="1160">
       <c r="B1160" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1160">
@@ -15807,7 +15807,7 @@
     <row r="1177">
       <c r="B1177" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1177">
@@ -15859,7 +15859,7 @@
     <row r="1181">
       <c r="B1181" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1181">
@@ -15989,7 +15989,7 @@
     <row r="1191">
       <c r="B1191" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1191">
@@ -16015,7 +16015,7 @@
     <row r="1193">
       <c r="B1193" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1193">
@@ -16132,7 +16132,7 @@
     <row r="1202">
       <c r="B1202" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1202">
@@ -16301,7 +16301,7 @@
     <row r="1215">
       <c r="B1215" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1215">
@@ -16314,7 +16314,7 @@
     <row r="1216">
       <c r="B1216" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1216">
@@ -16353,7 +16353,7 @@
     <row r="1219">
       <c r="B1219" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1219">
@@ -16366,7 +16366,7 @@
     <row r="1220">
       <c r="B1220" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1220">
@@ -16496,7 +16496,7 @@
     <row r="1230">
       <c r="B1230" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1230">
@@ -16548,7 +16548,7 @@
     <row r="1234">
       <c r="B1234" t="inlineStr">
         <is>
-          <t>Las Vigas de Ramírez</t>
+          <t>Las Vigas De Ramírez</t>
         </is>
       </c>
       <c r="C1234">
@@ -16561,7 +16561,7 @@
     <row r="1235">
       <c r="B1235" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1235">
@@ -16613,7 +16613,7 @@
     <row r="1239">
       <c r="B1239" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1239">
@@ -16639,7 +16639,7 @@
     <row r="1241">
       <c r="B1241" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1241">
@@ -16763,7 +16763,7 @@
         <v>14</v>
       </c>
       <c r="D1250">
-        <v>0.0009348290598290599</v>
+        <v>0.00093482905982906</v>
       </c>
     </row>
     <row r="1251">
@@ -16795,7 +16795,7 @@
     <row r="1253">
       <c r="B1253" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1253">
@@ -16834,7 +16834,7 @@
     <row r="1256">
       <c r="B1256" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1256">
@@ -16912,7 +16912,7 @@
     <row r="1262">
       <c r="B1262" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1262">
@@ -16977,7 +16977,7 @@
     <row r="1267">
       <c r="B1267" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C1267">
@@ -17250,7 +17250,7 @@
     <row r="1288">
       <c r="B1288" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1288">
@@ -17328,7 +17328,7 @@
     <row r="1294">
       <c r="B1294" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C1294">
@@ -17494,7 +17494,7 @@
     <row r="1306">
       <c r="B1306" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1306">
@@ -17632,41 +17632,6 @@
       </c>
       <c r="D1316">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1318">
-      <c r="A1318" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 826,856</t>
-        </is>
-      </c>
-    </row>
-    <row r="1319">
-      <c r="A1319" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1320">
-      <c r="A1320" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1321">
-      <c r="A1321" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1322">
-      <c r="A1322" t="inlineStr">
-        <is>
-          <t>Junio de 2018</t>
-        </is>
       </c>
     </row>
   </sheetData>
